--- a/medicine/Pharmacie/Chondodendron_tomentosum/Chondodendron_tomentosum.xlsx
+++ b/medicine/Pharmacie/Chondodendron_tomentosum/Chondodendron_tomentosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chondrodendron tomentosum est une espèce de plantes dicotylédones originaire d'Amérique du Sud.
 Ce sont des lianes, dont les Amérindiens tirent un poison paralysant, le curare.
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chondrodendron tomentosum est une plante grimpante ligneuse, dont les tiges peuvent atteindre 10 cm de diamètre à la base et 30 mètres de long, ce qui permet à la plante d'atteindre la canopée des forêts humides d'Amazonie.
 Les feuilles alternes, grandes, et cordiformes, sont glabres à la face supérieure et tomenteuses à la face inférieure, couverte d'un duvet de minuscules poils blancs. Elles peuvent atteindre de 10 à 20 cm de long avec un pétiole de 5 à 15 cm de long.
 Les fleurs, petites (de 1,5 à 3 mm de diamètre) sont groupées en grappes constituées de fleurs mâles et femelles séparées (plante monoïque).
-Les fruits charnus, ovales, étroits à la base, mesurent de 1 à 2 mm de long[2],[3].
+Les fruits charnus, ovales, étroits à la base, mesurent de 1 à 2 mm de long,.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (25 décembre 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (25 décembre 2017) :
 Chondodendron hypoleucum Standl.
 Chondodendron scabrum Miers
 Chondodendron tamoides Miers
